--- a/admin/retrieval_context.xlsx
+++ b/admin/retrieval_context.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/drew_wilkins/Drews_Files/Drew/Python/VSCode/ASK/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB5C86D-8E7B-FC44-9109-3E7B483F2EA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D21703B7-A512-864E-BB3E-1EB29EF40DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32320" yWindow="-24100" windowWidth="29040" windowHeight="22140" activeTab="1" xr2:uid="{EB31FEF1-4297-4549-87DA-13C8F980AD35}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1594" uniqueCount="1507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1594" uniqueCount="1508">
   <si>
     <t>Certification</t>
   </si>
@@ -4560,6 +4560,9 @@
   </si>
   <si>
     <t>get qualified</t>
+  </si>
+  <si>
+    <t>Boat crew is a competency and certification in the Auxiliary Boat Crew program. It is not part of the MSM program. It is part of Surface Operations which has requirements. See  ALAUX 002/23  2023 National Workshops, ALAUX 048/22, Calendar Year (CY) 2023 Annual Currency Maintenance Requirement Tracking for Crewmember, Coxswain, PWC Operator, and Nighttime Certification, CG-BSX Policy Letter 19-02  CHANGES TO AUXILIARY INCIDENT COMMAND SYSTEM (ICS) CORE TRAINING.</t>
   </si>
 </sst>
 </file>
@@ -4672,7 +4675,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4713,9 +4716,6 @@
     <xf numFmtId="17" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4723,10 +4723,22 @@
   </cellStyles>
   <dxfs count="8">
     <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -4766,22 +4778,10 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4797,22 +4797,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{86B674F6-EEA2-7343-94E7-3A812E52CE46}" name="Table2" displayName="Table2" ref="A1:B765" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{86B674F6-EEA2-7343-94E7-3A812E52CE46}" name="Table2" displayName="Table2" ref="A1:B765" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A1:B765" xr:uid="{86B674F6-EEA2-7343-94E7-3A812E52CE46}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{360F639C-CD96-B945-83FA-680479071711}" name="acronym" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{24DDF167-43AA-F143-A132-2D8A8EDAF8AC}" name="definition" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{360F639C-CD96-B945-83FA-680479071711}" name="acronym" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{24DDF167-43AA-F143-A132-2D8A8EDAF8AC}" name="definition" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8AE42593-E06E-834D-9409-06C6BC93EA63}" name="Table1" displayName="Table1" ref="A1:B107" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8AE42593-E06E-834D-9409-06C6BC93EA63}" name="Table1" displayName="Table1" ref="A1:B107" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
   <autoFilter ref="A1:B107" xr:uid="{8AE42593-E06E-834D-9409-06C6BC93EA63}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{0B025C42-A16E-8442-B928-48B37850B8A4}" name="term" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{D6B1FFC6-2990-DC4E-8615-63C5C5E64596}" name="implication" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{0B025C42-A16E-8442-B928-48B37850B8A4}" name="term" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{D6B1FFC6-2990-DC4E-8615-63C5C5E64596}" name="implication" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11489,7 +11489,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -11508,7 +11508,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="17">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="1" t="s">
         <v>1503</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -11516,7 +11516,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="17">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="1" t="s">
         <v>1504</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -11524,7 +11524,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" ht="17">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="1" t="s">
         <v>1505</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -11532,7 +11532,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="17">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="1" t="s">
         <v>1506</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -11548,7 +11548,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="17">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="1" t="s">
         <v>1497</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -11596,14 +11596,14 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="17">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="1" t="s">
         <v>1496</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>1495</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="17">
+    <row r="14" spans="1:2" ht="34">
       <c r="A14" s="1" t="s">
         <v>4</v>
       </c>
@@ -11619,12 +11619,12 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="17">
+    <row r="16" spans="1:2" ht="51">
       <c r="A16" s="1" t="s">
         <v>1456</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1495</v>
+        <v>1507</v>
       </c>
     </row>
   </sheetData>

--- a/admin/retrieval_context.xlsx
+++ b/admin/retrieval_context.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/drew_wilkins/Drews_Files/Drew/Python/VSCode/ASK/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D21703B7-A512-864E-BB3E-1EB29EF40DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBBB0103-D713-B043-AA5D-73C6E9F3C79A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32320" yWindow="-24100" windowWidth="29040" windowHeight="22140" activeTab="1" xr2:uid="{EB31FEF1-4297-4549-87DA-13C8F980AD35}"/>
   </bookViews>
@@ -4562,7 +4562,7 @@
     <t>get qualified</t>
   </si>
   <si>
-    <t>Boat crew is a competency and certification in the Auxiliary Boat Crew program. It is not part of the MSM program. It is part of Surface Operations which has requirements. See  ALAUX 002/23  2023 National Workshops, ALAUX 048/22, Calendar Year (CY) 2023 Annual Currency Maintenance Requirement Tracking for Crewmember, Coxswain, PWC Operator, and Nighttime Certification, CG-BSX Policy Letter 19-02  CHANGES TO AUXILIARY INCIDENT COMMAND SYSTEM (ICS) CORE TRAINING.</t>
+    <t>Boat crew is a competency and certification in the Auxiliary Boat Crew program. It is not part of the MSM program. ALAUX/002_23_2023_NATIONAL_WORKSHOPS, ALAUX 048/22, Calendar Year (CY) 2023 Annual Currency Maintenance Requirement Tracking for Crewmember, Coxswain, PWC Operator, and Nighttime Certification, CG-BSX Policy Letter 19-02  CHANGES TO AUXILIARY INCIDENT COMMAND SYSTEM (ICS) CORE TRAINING.</t>
   </si>
 </sst>
 </file>
@@ -11489,7 +11489,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/admin/retrieval_context.xlsx
+++ b/admin/retrieval_context.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/drew_wilkins/Drews_Files/Drew/Python/VSCode/ASK/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBBB0103-D713-B043-AA5D-73C6E9F3C79A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B01017D0-8F34-FC41-A995-DC28129FCCAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32320" yWindow="-24100" windowWidth="29040" windowHeight="22140" activeTab="1" xr2:uid="{EB31FEF1-4297-4549-87DA-13C8F980AD35}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1594" uniqueCount="1508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1594" uniqueCount="1509">
   <si>
     <t>Certification</t>
   </si>
@@ -4563,6 +4563,9 @@
   </si>
   <si>
     <t>Boat crew is a competency and certification in the Auxiliary Boat Crew program. It is not part of the MSM program. ALAUX/002_23_2023_NATIONAL_WORKSHOPS, ALAUX 048/22, Calendar Year (CY) 2023 Annual Currency Maintenance Requirement Tracking for Crewmember, Coxswain, PWC Operator, and Nighttime Certification, CG-BSX Policy Letter 19-02  CHANGES TO AUXILIARY INCIDENT COMMAND SYSTEM (ICS) CORE TRAINING.</t>
+  </si>
+  <si>
+    <t>Includes completion of the Annual Risk Management RCT Rrefresher, National Surface Workshop, if offered. Mantainance of AUXCT. See ALAUX 048/22, Calendar Year (CY) 2023 Annual Currency Maintenance Requirement Tracking for Crewmember, Coxswain, PWC Operator, and Nighttime Certification,  ALAUX/002_23_2023_NATIONAL_WORKSHOPSs, CG-BSX Policy Letter 19-02  CHANGES TO AUXILIARY INCIDENT COMMAND SYSTEM (ICS) CORE TRAINING.</t>
   </si>
 </sst>
 </file>
@@ -11489,7 +11492,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -11568,7 +11571,7 @@
         <v>1501</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1500</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="51">

--- a/admin/retrieval_context.xlsx
+++ b/admin/retrieval_context.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/drew_wilkins/Drews_Files/Drew/Python/VSCode/ASK/config/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/drew_wilkins/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B01017D0-8F34-FC41-A995-DC28129FCCAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07CDF6F2-1E8C-434F-9761-52DDC62846E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32320" yWindow="-24100" windowWidth="29040" windowHeight="22140" activeTab="1" xr2:uid="{EB31FEF1-4297-4549-87DA-13C8F980AD35}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1594" uniqueCount="1509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1596" uniqueCount="1511">
   <si>
     <t>Certification</t>
   </si>
@@ -4566,6 +4566,12 @@
   </si>
   <si>
     <t>Includes completion of the Annual Risk Management RCT Rrefresher, National Surface Workshop, if offered. Mantainance of AUXCT. See ALAUX 048/22, Calendar Year (CY) 2023 Annual Currency Maintenance Requirement Tracking for Crewmember, Coxswain, PWC Operator, and Nighttime Certification,  ALAUX/002_23_2023_NATIONAL_WORKSHOPSs, CG-BSX Policy Letter 19-02  CHANGES TO AUXILIARY INCIDENT COMMAND SYSTEM (ICS) CORE TRAINING.</t>
+  </si>
+  <si>
+    <t>current as a member</t>
+  </si>
+  <si>
+    <t>Currency means fulfilling the requirements to retain certification in a program. However members are required to maintain the Core Training (AUXCT), undego an annual uniform inspection, and pay annual dues</t>
   </si>
 </sst>
 </file>
@@ -4678,7 +4684,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4718,6 +4724,9 @@
     </xf>
     <xf numFmtId="17" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4811,8 +4820,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8AE42593-E06E-834D-9409-06C6BC93EA63}" name="Table1" displayName="Table1" ref="A1:B107" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
-  <autoFilter ref="A1:B107" xr:uid="{8AE42593-E06E-834D-9409-06C6BC93EA63}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8AE42593-E06E-834D-9409-06C6BC93EA63}" name="Table1" displayName="Table1" ref="A1:B108" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+  <autoFilter ref="A1:B108" xr:uid="{8AE42593-E06E-834D-9409-06C6BC93EA63}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{0B025C42-A16E-8442-B928-48B37850B8A4}" name="term" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{D6B1FFC6-2990-DC4E-8615-63C5C5E64596}" name="implication" dataDxfId="0"/>
@@ -11489,10 +11498,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{917A7356-6804-9849-AB1D-14D53A2CCFE9}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -11550,83 +11559,91 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="17">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:2" ht="34">
+      <c r="A7" s="14" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="17">
+      <c r="A8" s="1" t="s">
         <v>1497</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>1499</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="34">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:2" ht="34">
+      <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>1459</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="51">
-      <c r="A9" s="1" t="s">
-        <v>1501</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>1508</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="51">
       <c r="A10" s="1" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="51">
+      <c r="A11" s="1" t="s">
         <v>1502</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>1500</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="17">
-      <c r="A11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>1453</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17">
       <c r="A12" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17">
       <c r="A13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="17">
+      <c r="A14" s="1" t="s">
         <v>1496</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>1495</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="34">
-      <c r="A14" s="1" t="s">
+    <row r="15" spans="1:2" ht="34">
+      <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="17">
-      <c r="A15" s="1" t="s">
+    <row r="16" spans="1:2" ht="17">
+      <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>1454</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="51">
-      <c r="A16" s="1" t="s">
+    <row r="17" spans="1:2" ht="51">
+      <c r="A17" s="1" t="s">
         <v>1456</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>1507</v>
       </c>
     </row>

--- a/admin/retrieval_context.xlsx
+++ b/admin/retrieval_context.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/drew_wilkins/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07CDF6F2-1E8C-434F-9761-52DDC62846E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA40356-88B7-574B-9171-C887BBDCFF3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32320" yWindow="-24100" windowWidth="29040" windowHeight="22140" activeTab="1" xr2:uid="{EB31FEF1-4297-4549-87DA-13C8F980AD35}"/>
   </bookViews>
@@ -4571,7 +4571,7 @@
     <t>current as a member</t>
   </si>
   <si>
-    <t>Currency means fulfilling the requirements to retain certification in a program. However members are required to maintain the Core Training (AUXCT), undego an annual uniform inspection, and pay annual dues</t>
+    <t>Auxiliary members are required to maintain the Core Training (AUXCT), undego an annual uniform inspection, and pay annual dues</t>
   </si>
 </sst>
 </file>
@@ -4684,7 +4684,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4724,9 +4724,6 @@
     </xf>
     <xf numFmtId="17" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -11501,7 +11498,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -11559,8 +11556,8 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="34">
-      <c r="A7" s="14" t="s">
+    <row r="7" spans="1:2" ht="17">
+      <c r="A7" s="1" t="s">
         <v>1509</v>
       </c>
       <c r="B7" s="1" t="s">
